--- a/Use Case Descriptions.xlsx
+++ b/Use Case Descriptions.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwpark\Desktop\swe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9945"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>결제 및 요금 조회 기능</t>
   </si>
@@ -95,35 +103,117 @@
   </si>
   <si>
     <t>3. 기간에 따른 대여 금액 및 대여 횟수 정보 출력</t>
+  </si>
+  <si>
+    <t>회원 가입 기능</t>
+  </si>
+  <si>
+    <t>1. 회원 가입 버튼을 클릭</t>
+  </si>
+  <si>
+    <t>2. 회원 가입 화면을 표시</t>
+  </si>
+  <si>
+    <t>3. 회원 정보 입력(ID, 비밀
+번호, 전화번호, 결제 수단, 선호 자전거 유형(일반/전기) 등)</t>
+  </si>
+  <si>
+    <t>4. 가입 완료 메세지 표시</t>
+  </si>
+  <si>
+    <t>회원 탈퇴 기능</t>
+  </si>
+  <si>
+    <t>1. 회원 탈퇴 버튼을 클릭</t>
+  </si>
+  <si>
+    <t>2. 회원 정보 확인 메세지 표시</t>
+  </si>
+  <si>
+    <t>3. 회원 정보 입력(비밀번호)</t>
+  </si>
+  <si>
+    <t>4. 회원 탈퇴 완료 메세지 표시</t>
+  </si>
+  <si>
+    <t>로그인/로그아웃 기능</t>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+  </si>
+  <si>
+    <t>1. 로그인 버튼 클릭</t>
+  </si>
+  <si>
+    <t>2. 로그인 화면 표시</t>
+  </si>
+  <si>
+    <t>3. ID, 비밀번호 입력</t>
+  </si>
+  <si>
+    <t>4. 로그인 완료 메시지 표시</t>
+  </si>
+  <si>
+    <t>로그아웃 기능</t>
+  </si>
+  <si>
+    <t>1. 로그아웃 버튼 클릭</t>
+  </si>
+  <si>
+    <t>2. 로그아웃 완료 화면 표시</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -131,64 +221,99 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -378,36 +503,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.25"/>
-    <col customWidth="1" min="2" max="2" width="34.88"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -415,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -423,13 +553,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -437,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -445,23 +575,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -469,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -477,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -485,13 +615,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -499,7 +629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -507,29 +637,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -537,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -545,7 +675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -553,13 +683,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>2</v>
       </c>
@@ -567,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -575,13 +705,142 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Use Case Descriptions.xlsx
+++ b/Use Case Descriptions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwpark\Desktop\swe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\sw-engineering21\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BC54AE-8236-4E35-AD88-B839DE51FE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9945"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
     <t>결제 및 요금 조회 기능</t>
   </si>
@@ -161,12 +162,118 @@
   </si>
   <si>
     <t>2. 로그아웃 완료 화면 표시</t>
+  </si>
+  <si>
+    <t>대여소 등록/조회/삭제 기능</t>
+  </si>
+  <si>
+    <t>대여소 등록 기능</t>
+  </si>
+  <si>
+    <t>1. 대여소 등록 버튼을 클릭</t>
+  </si>
+  <si>
+    <t>2. 대여소 등록 화면을 표시</t>
+  </si>
+  <si>
+    <t>3. 대여소 정보 입력 (대여소 이름, 위치(도시, 주소),
+자전거 보관 가능 수량, 운영 시간 등)</t>
+  </si>
+  <si>
+    <t>4. 등록 완료 메세지 표시</t>
+  </si>
+  <si>
+    <t>대여소 조회 기능</t>
+  </si>
+  <si>
+    <t>1. 화면에 대여소 리스트 표시</t>
+  </si>
+  <si>
+    <t>2. 조회하고 싶은 대여소 선택</t>
+  </si>
+  <si>
+    <t>3. 선택한 대여소의 상세내용을 새 화면에서 표시</t>
+  </si>
+  <si>
+    <t>대여소 삭제 기능</t>
+  </si>
+  <si>
+    <t>1.화면에 자전거 리스트 표시</t>
+  </si>
+  <si>
+    <t>2. 삭제하고 싶은 자전거 정보 선택 후 삭제</t>
+  </si>
+  <si>
+    <t>3. 삭제 완료 메세지 표시</t>
+  </si>
+  <si>
+    <t>자전거 등록/조회/삭제 기능</t>
+  </si>
+  <si>
+    <t>자전거 등록 기능</t>
+  </si>
+  <si>
+    <t>1. 자전거 등록 버튼을 클릭</t>
+  </si>
+  <si>
+    <t>2. 자전거 등록 화면을 표시</t>
+  </si>
+  <si>
+    <t>3. 자전거 정보 입력 (자전거 ID,
+자전거 제품명, 유형(일반/전기), 소속 대여소, 
+상태(사용 가능/수리 중) 등)</t>
+  </si>
+  <si>
+    <t>자전거 조회 기능</t>
+  </si>
+  <si>
+    <t>1. 화면에 자전거 리스트 표시</t>
+  </si>
+  <si>
+    <t>2. 조회하고 싶은 자전거 선택</t>
+  </si>
+  <si>
+    <t>3. 선택한 자전거의 상세내용을 새 화면에서 표시</t>
+  </si>
+  <si>
+    <t>자전거 삭제 기능</t>
+  </si>
+  <si>
+    <t>대여소 검색 기능</t>
+  </si>
+  <si>
+    <t>1. 대여소 검색 조건 입력 (대여소 이름)</t>
+  </si>
+  <si>
+    <t>2. 조건에 맞는 대여소 리스트 화면에 표시</t>
+  </si>
+  <si>
+    <t>상세정보 조회 및 자전거 즉시대여/예약대기 기능</t>
+  </si>
+  <si>
+    <t>1. 특정 대여소 선택</t>
+  </si>
+  <si>
+    <t>2. 해당 대여소의 상세정보(대여소 이름, 대여소 위치, 
+사용 가능 자전거 목록 등) 조회 화면 표시</t>
+  </si>
+  <si>
+    <t>3. 대여/예약대기 선택</t>
+  </si>
+  <si>
+    <t>4. 전화번호 입력창 표시</t>
+  </si>
+  <si>
+    <t>5. 전화번호 입력</t>
+  </si>
+  <si>
+    <t>6. 대여/예약 정보를 문자로 전송</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -255,12 +362,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -273,10 +380,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -294,6 +398,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,35 +625,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.3046875" customWidth="1"/>
+    <col min="2" max="2" width="34.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -545,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -553,13 +669,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -567,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -575,23 +691,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -599,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -607,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -615,13 +731,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -629,37 +745,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -667,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -675,7 +791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -683,21 +799,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -705,137 +821,409 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="15"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="15"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="15"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="15"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Use Case Descriptions.xlsx
+++ b/Use Case Descriptions.xlsx
@@ -11,12 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
-  <si>
-    <t>결제 및 요금 조회 기능</t>
-  </si>
-  <si>
-    <t>(반납 기능에 추가)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
+  <si>
+    <t>회원 가입 기능</t>
   </si>
   <si>
     <t>Actor action</t>
@@ -25,76 +22,304 @@
     <t>System response</t>
   </si>
   <si>
-    <t>1. 자전거 반납</t>
-  </si>
-  <si>
-    <t>2. 사용시간에 따른 요금 계산 및 자동 결제</t>
-  </si>
-  <si>
-    <t>요금 조회</t>
-  </si>
-  <si>
-    <t>1. 요금 조회 메뉴 클릭</t>
-  </si>
-  <si>
-    <t>2.  대여 시간 및 요금 내역 표시</t>
-  </si>
-  <si>
-    <t>이용 내역 조회/삭제 기능</t>
-  </si>
-  <si>
-    <t>대여 기록 조회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 대여 기록 조회 버튼 클릭 </t>
-  </si>
-  <si>
-    <t>2. 회원의 대여 기록 내역을 날짜별로 출력, 대여소별 정렬 옵션 제공</t>
-  </si>
-  <si>
-    <t>3. 원하는 경우 정렬 기준 선택</t>
-  </si>
-  <si>
-    <t>4. 선택한 기준에 따라 대여 기록 내역 출력</t>
-  </si>
-  <si>
-    <t>대여 기록 삭제</t>
-  </si>
-  <si>
-    <t>2. 삭제하고 싶은 대여 기록 선택</t>
-  </si>
-  <si>
-    <t>1. 대여 기록 내역을 화면에 표시</t>
-  </si>
-  <si>
-    <t>3. 삭제 완료 메세지 화면에 표시</t>
-  </si>
-  <si>
-    <t>통계 기능</t>
-  </si>
-  <si>
-    <t>전체 대여 정보 조회</t>
-  </si>
-  <si>
-    <t>1. 전체 대여 정보 조회 클릭</t>
-  </si>
-  <si>
-    <t>2. 전체 대여 정보를 반납시간 기준 최근순으로 출력, 지역별 정렬 옵션 제공</t>
-  </si>
-  <si>
-    <t>4. 선택한 기준에 따라 전체 대여 정보를 출력</t>
-  </si>
-  <si>
-    <t>대여 금액 및 횟수 통계</t>
-  </si>
-  <si>
-    <t>2. 기간 단위 선택 후 '대여 금액 및 횟수 통계' 버튼 클릭</t>
-  </si>
-  <si>
-    <t>1. 기간 선택 옵션 제공</t>
-  </si>
-  <si>
-    <t>3. 기간에 따른 대여 금액 및 대여 횟수 정보 출력</t>
+    <t>1. 게스트가 회원 가입 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>2. 회원 가입 화면을 표시한다.</t>
+  </si>
+  <si>
+    <t>3. 게스트가 회원 정보(ID, 비밀
+번호, 전화번호, 결제 수단, 선호 자전거 유형(일반/전기) 등)를 입력한다.</t>
+  </si>
+  <si>
+    <t>4. 가입 완료 메세지를 표시한다.</t>
+  </si>
+  <si>
+    <t>회원 탈퇴 기능</t>
+  </si>
+  <si>
+    <t>1. 회원이 회원 탈퇴 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>2. 회원 정보 확인 메세지를 표시한다.</t>
+  </si>
+  <si>
+    <t>3. 회원이 회원 정보(비밀번호)를 입력한다.</t>
+  </si>
+  <si>
+    <t>4. 회원 탈퇴 완료 메세지를 표시한다.</t>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+  </si>
+  <si>
+    <t>1. 멤버가 로그인 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>2. 로그인 화면을 표시한다.</t>
+  </si>
+  <si>
+    <t>3. 멤버가 ID, 비밀번호를 입력한다.</t>
+  </si>
+  <si>
+    <t>4. 로그인 완료 메시지를 표시한다.</t>
+  </si>
+  <si>
+    <t>로그아웃 기능</t>
+  </si>
+  <si>
+    <t>1. 멤버가 로그아웃 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>2. 로그아웃 완료 화면을 표시한다.</t>
+  </si>
+  <si>
+    <t>대여소 정보 등록 기능</t>
+  </si>
+  <si>
+    <t>1. 대여소 등록 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>2. 대여소 등록 화면을 표시한다.</t>
+  </si>
+  <si>
+    <t>3. 대여소 정보를 입력한다. (대여소 이름, 위치(도시, 주소), 자전거 보관 가능 수량, 운영 시간 등)</t>
+  </si>
+  <si>
+    <t>4. 등록 완료 메세지를 표시한다.</t>
+  </si>
+  <si>
+    <t>대여소 리스트 조회 기능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 대여소 리스트 조회 메뉴를 선택한다. </t>
+  </si>
+  <si>
+    <t>2. 화면에 자전거 리스트를 표시한다.</t>
+  </si>
+  <si>
+    <t>extensions</t>
+  </si>
+  <si>
+    <t>Step2 이후, 대여소 정보 삭제 가능</t>
+  </si>
+  <si>
+    <t>3. 삭제하고 싶은 대여소 정보를 선택 후 삭제한다.</t>
+  </si>
+  <si>
+    <t>3. 삭제 완료 메세지를 표시한다.</t>
+  </si>
+  <si>
+    <t>대여소 상세내용 조회 기능</t>
+  </si>
+  <si>
+    <t>1. 화면에 대여소 리스트를 표시한다.</t>
+  </si>
+  <si>
+    <t>2. 조회하고 싶은 대여소를 선택한다.</t>
+  </si>
+  <si>
+    <t>3. 선택한 대여소의 상세내용을 새 화면에서 표시한다.</t>
+  </si>
+  <si>
+    <t>자전거 정보 등록 기능</t>
+  </si>
+  <si>
+    <t>1. 자전거 등록 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>2. 자전거 등록 화면을 표시한다.</t>
+  </si>
+  <si>
+    <t>3. 자전거 정보를 입력한다. (자전거 ID, 자전거 제품명, 유형(일반/전기), 소속 대여소, 
+상태(사용 가능/수리 중) 등)</t>
+  </si>
+  <si>
+    <t>자전거 리스트 조회 기능</t>
+  </si>
+  <si>
+    <t>Step2 이후, 자전거 정보 삭제 가능</t>
+  </si>
+  <si>
+    <t>3. 삭제하고 싶은 자전거 정보를 선택 후 삭제한다.</t>
+  </si>
+  <si>
+    <t>자전거 상세내용 조회 기능</t>
+  </si>
+  <si>
+    <t>1. 자전거 리스트를 화면에 표시한다.</t>
+  </si>
+  <si>
+    <t>2. 조회하고 싶은 자전거를 선택한다.</t>
+  </si>
+  <si>
+    <t>3. 선택한 자전거의 상세내용을 새 화면에서 표시한다.</t>
+  </si>
+  <si>
+    <t>대여소 검색 기능</t>
+  </si>
+  <si>
+    <t>1. 대여소 검색 조건을 입력한다. (대여소 이름)</t>
+  </si>
+  <si>
+    <t>2. 조건에 맞는 대여소 리스트를 화면에 표시한다.</t>
+  </si>
+  <si>
+    <t>대여소 상세정보 조회 기능</t>
+  </si>
+  <si>
+    <t>1. 특정 대여소를 선택한다.</t>
+  </si>
+  <si>
+    <t>2. 해당 대여소의 상세정보를(대여소 이름, 대여소 위치, 
+사용 가능 자전거 목록 등) 조회 화면에 표시한다.</t>
+  </si>
+  <si>
+    <t>Step2 이후, 자전거 대여 가능</t>
+  </si>
+  <si>
+    <t>External Actor Action (문자 시스템)</t>
+  </si>
+  <si>
+    <t>3. 대여/예약대기를 선택한다.</t>
+  </si>
+  <si>
+    <t>4. 대여/예약 완료 메세지를 표시한다.</t>
+  </si>
+  <si>
+    <t>5. 대여/예약 정보를 문자로 보낸다.</t>
+  </si>
+  <si>
+    <t>자전거 대여 정보 조회 기능</t>
+  </si>
+  <si>
+    <t>1. 회원이 현재 대여중인 자전거를 조회한다.</t>
+  </si>
+  <si>
+    <t>2. 해당 리스트가 출력되고 자전거 정보(대여소 이름, 위치, ID, 제품명, 유형)를 화면에 출력한다.</t>
+  </si>
+  <si>
+    <t>extensions:</t>
+  </si>
+  <si>
+    <t>Step2 이후, 자전거 반납 기능</t>
+  </si>
+  <si>
+    <t>External Actor Action (이메일 전송 서비스)</t>
+  </si>
+  <si>
+    <t>External Acter Action (결제 서비스)</t>
+  </si>
+  <si>
+    <t>3. 회원이 자전거 반납 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>4. 선택된 자전거가 반납되었다는 메세지를 출력한다</t>
+  </si>
+  <si>
+    <t>5. 반납된 자전거에 대해서 대기 예약한 다른 회원이 있다면, 대기 1순위 회원에게 예약이 확정되었다는 이메일을 보낸다.</t>
+  </si>
+  <si>
+    <t>6. 외부 결제 시스템은 회원의 자전거 사용 시간에 따른 요금에 대해 자동 결제를 수행한다</t>
+  </si>
+  <si>
+    <t>Step4 이후, 식당 예약 서비스 연계 기능</t>
+  </si>
+  <si>
+    <t>External Actor Action (식당 추천 예약 서비스)</t>
+  </si>
+  <si>
+    <t>5. 회원이 근처 식당 예약 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>6. 외부 식당 추천 서비스 화면으로 이동한다.</t>
+  </si>
+  <si>
+    <t>7. 사용자 위치 정보 기반 추천 근처 식당을 화면에 출력한다.</t>
+  </si>
+  <si>
+    <t>자전거 예약 대기 정보 조회 기능</t>
+  </si>
+  <si>
+    <t>1. 회원이 자전거 예약 대기 정보 조회 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>2. 해당 리스트가 출력되고 자전거 예약대기 정보(대여소 이름, 대여소 위치, 자전거 ID, 자전거 제품명, 자전거 유형)을 화면에 출력한다.</t>
+  </si>
+  <si>
+    <t>Step2 이후, 자전거 예약 대기 취소 기능</t>
+  </si>
+  <si>
+    <t>3. 회원이 자전거 예약 대기 정보에서 예약 대기 취소 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>4. 선택한 예약 대기 자전거가 취소되었다는 메세지를 화면에 출력한다.</t>
+  </si>
+  <si>
+    <t>요금 조회 기능</t>
+  </si>
+  <si>
+    <t>1. 요금 조회 메뉴를 클릭한다.</t>
+  </si>
+  <si>
+    <t>2.  대여 시간 및 요금 내역 리스트를 출력한다.</t>
+  </si>
+  <si>
+    <t>대여 기록 조회 기능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 대여 기록 조회 메뉴를 선택한다. </t>
+  </si>
+  <si>
+    <t>2. 회원의 대여 기록 내역을 날짜별로 출력한다.</t>
+  </si>
+  <si>
+    <t>Step2 이후, 대여소별 정렬 옵션 선택 가능</t>
+  </si>
+  <si>
+    <t>3. 대여소별 정렬 옵션을 클릭한다.</t>
+  </si>
+  <si>
+    <t>4. 선택한 기준에 따라 대여 기록 내역을 출력한다.</t>
+  </si>
+  <si>
+    <t>Step2 이후, 대여 기록 삭제 가능</t>
+  </si>
+  <si>
+    <t>3. 삭제하고 싶은 대여 기록을 선택한다.</t>
+  </si>
+  <si>
+    <t>4. 삭제 완료 메세지를 화면에 표시한다.</t>
+  </si>
+  <si>
+    <t>전체 대여 정보 조회 기능</t>
+  </si>
+  <si>
+    <t>1. 전체 대여 정보 조회 메뉴를 선택한다.</t>
+  </si>
+  <si>
+    <t>2. 전체 대여 정보를 반납시간 기준 최근순으로 출력한다.</t>
+  </si>
+  <si>
+    <t>Step2 이후, 지역별 정렬 옵션 선택 가능</t>
+  </si>
+  <si>
+    <t>3. 지역별 정렬 옵션을 클릭한다.</t>
+  </si>
+  <si>
+    <t>4. 선택한 기준에 따라 전체 대여 정보를 출력한다.</t>
+  </si>
+  <si>
+    <t>대여 금액 및 횟수 통계 기능</t>
+  </si>
+  <si>
+    <t>2. 기간 단위 선택 후 대여 금액 및 횟수 통계 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>1. 기간 선택 옵션을 화면에 표시한다.</t>
+  </si>
+  <si>
+    <t>3. 선택한 기간에 대한 대여 금액 및 대여 횟수 정보를 출력한다.</t>
   </si>
 </sst>
 </file>
@@ -118,7 +343,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +356,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -138,21 +369,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -160,20 +391,32 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,8 +634,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.25"/>
-    <col customWidth="1" min="2" max="2" width="34.88"/>
+    <col customWidth="1" min="1" max="1" width="35.25"/>
+    <col customWidth="1" min="2" max="2" width="38.75"/>
+    <col customWidth="1" min="3" max="3" width="38.0"/>
+    <col customWidth="1" min="4" max="4" width="39.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -400,186 +645,928 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>16</v>
+      <c r="A16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7"/>
-      <c r="B27" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4"/>
+      <c r="B101" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
